--- a/Snplists/T1D_GRS67/T1D_GRS67_1000G_nopalin_pos_hg19.xlsx
+++ b/Snplists/T1D_GRS67/T1D_GRS67_1000G_nopalin_pos_hg19.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="151" documentId="13_ncr:1_{FCAE6DCA-AE44-0448-B6F3-3E1A9A87198D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D0B45911-9B4A-5648-9D52-A8A2C0BCB000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16500" xr2:uid="{790D5DEB-C308-234D-BB35-18DFB1DC5B15}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16500" xr2:uid="{790D5DEB-C308-234D-BB35-18DFB1DC5B15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -952,7 +952,7 @@
   <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Snplists/T1D_GRS67/T1D_GRS67_1000G_nopalin_pos_hg19.xlsx
+++ b/Snplists/T1D_GRS67/T1D_GRS67_1000G_nopalin_pos_hg19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/s_sharp_exeter_ac_uk/Documents/LIVE/hla-prs-toolkit/Snplists/T1D_GRS67/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\hla-prs-toolkit\Snplists\T1D_GRS67\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="13_ncr:1_{FCAE6DCA-AE44-0448-B6F3-3E1A9A87198D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D0B45911-9B4A-5648-9D52-A8A2C0BCB000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD8B978-AFC2-4238-AC76-456904907FB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16500" xr2:uid="{790D5DEB-C308-234D-BB35-18DFB1DC5B15}"/>
+    <workbookView xWindow="-19310" yWindow="-80" windowWidth="19420" windowHeight="11020" xr2:uid="{790D5DEB-C308-234D-BB35-18DFB1DC5B15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="180">
   <si>
     <t>STRAND</t>
   </si>
@@ -570,6 +570,9 @@
   </si>
   <si>
     <t>10:6129643</t>
+  </si>
+  <si>
+    <t>11:2181060</t>
   </si>
 </sst>
 </file>
@@ -951,11 +954,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2936C92A-3A1B-4C43-81CA-C5EF6A570C1B}">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -967,7 +970,7 @@
     <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -999,7 +1002,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>150</v>
       </c>
@@ -1032,7 +1035,7 @@
       </c>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>151</v>
       </c>
@@ -1065,7 +1068,7 @@
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>152</v>
       </c>
@@ -1100,7 +1103,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>153</v>
       </c>
@@ -1135,7 +1138,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>154</v>
       </c>
@@ -1170,7 +1173,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>155</v>
       </c>
@@ -1205,7 +1208,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>156</v>
       </c>
@@ -1240,7 +1243,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>157</v>
       </c>
@@ -1275,7 +1278,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>158</v>
       </c>
@@ -1310,7 +1313,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>159</v>
       </c>
@@ -1345,7 +1348,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>164</v>
       </c>
@@ -1380,7 +1383,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>161</v>
       </c>
@@ -1415,7 +1418,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>165</v>
       </c>
@@ -1450,7 +1453,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>160</v>
       </c>
@@ -1485,7 +1488,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1520,7 +1523,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1555,7 +1558,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -1590,7 +1593,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1625,7 +1628,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1660,7 +1663,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -1695,7 +1698,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -1730,7 +1733,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -1765,7 +1768,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -1800,7 +1803,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1835,7 +1838,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1870,7 +1873,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -1905,7 +1908,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -1940,7 +1943,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -1975,7 +1978,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -2010,7 +2013,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -2045,7 +2048,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -2077,7 +2080,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -2109,7 +2112,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -2141,7 +2144,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -2173,7 +2176,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -2205,7 +2208,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>75</v>
       </c>
@@ -2221,8 +2224,8 @@
       <c r="E37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="1">
-        <v>2181060</v>
+      <c r="F37" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>78</v>
@@ -2237,7 +2240,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>75</v>
       </c>
@@ -2269,7 +2272,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>75</v>
       </c>
@@ -2301,7 +2304,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>75</v>
       </c>
@@ -2333,7 +2336,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>75</v>
       </c>
@@ -2365,7 +2368,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>75</v>
       </c>
@@ -2397,7 +2400,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>75</v>
       </c>
@@ -2429,7 +2432,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>75</v>
       </c>
@@ -2461,7 +2464,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>75</v>
       </c>
@@ -2493,7 +2496,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>75</v>
       </c>
@@ -2525,7 +2528,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>75</v>
       </c>
@@ -2557,7 +2560,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>75</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>75</v>
       </c>
@@ -2621,7 +2624,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>75</v>
       </c>
@@ -2653,7 +2656,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
@@ -2685,7 +2688,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>75</v>
       </c>
@@ -2717,7 +2720,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,7 +2752,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>75</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>75</v>
       </c>
@@ -2813,7 +2816,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>75</v>
       </c>
@@ -2845,7 +2848,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>75</v>
       </c>
@@ -2877,7 +2880,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>75</v>
       </c>
@@ -2909,7 +2912,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>75</v>
       </c>
@@ -2941,7 +2944,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>75</v>
       </c>
@@ -2973,7 +2976,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>75</v>
       </c>
@@ -3005,7 +3008,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>75</v>
       </c>
@@ -3037,7 +3040,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
@@ -3069,7 +3072,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>75</v>
       </c>
@@ -3101,7 +3104,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>75</v>
       </c>
@@ -3133,7 +3136,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>75</v>
       </c>
@@ -3165,7 +3168,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>75</v>
       </c>
@@ -3197,7 +3200,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>75</v>
       </c>

--- a/Snplists/T1D_GRS67/T1D_GRS67_1000G_nopalin_pos_hg19.xlsx
+++ b/Snplists/T1D_GRS67/T1D_GRS67_1000G_nopalin_pos_hg19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\hla-prs-toolkit\Snplists\T1D_GRS67\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/s_sharp_exeter_ac_uk/Documents/LIVE/hla-prs-toolkit/Snplists/T1D_GRS67/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD8B978-AFC2-4238-AC76-456904907FB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{0CD8B978-AFC2-4238-AC76-456904907FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7288219E-8A14-524D-A601-828D506F9A56}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-80" windowWidth="19420" windowHeight="11020" xr2:uid="{790D5DEB-C308-234D-BB35-18DFB1DC5B15}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27140" xr2:uid="{790D5DEB-C308-234D-BB35-18DFB1DC5B15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="177">
   <si>
     <t>STRAND</t>
   </si>
@@ -188,9 +188,6 @@
     <t>rs149663102</t>
   </si>
   <si>
-    <t>GC</t>
-  </si>
-  <si>
     <t>CTA</t>
   </si>
   <si>
@@ -263,9 +260,6 @@
     <t>Non-HLA</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>6:32622047</t>
   </si>
   <si>
@@ -311,9 +305,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>rs111485156</t>
-  </si>
-  <si>
     <t>6:32679992</t>
   </si>
   <si>
@@ -341,15 +332,9 @@
     <t>rs17843689</t>
   </si>
   <si>
-    <t>6:31274793</t>
-  </si>
-  <si>
     <t>6:32583468</t>
   </si>
   <si>
-    <t>6:32367697</t>
-  </si>
-  <si>
     <t>rs9268500</t>
   </si>
   <si>
@@ -368,9 +353,6 @@
     <t>6:29863887</t>
   </si>
   <si>
-    <t>6:32447188</t>
-  </si>
-  <si>
     <t>6:29728253</t>
   </si>
   <si>
@@ -542,9 +524,6 @@
     <t>TG</t>
   </si>
   <si>
-    <t>6:31344183</t>
-  </si>
-  <si>
     <t>1:206939904</t>
   </si>
   <si>
@@ -554,9 +533,6 @@
     <t>12:9885999</t>
   </si>
   <si>
-    <t>1:163110536</t>
-  </si>
-  <si>
     <t>2:204738919</t>
   </si>
   <si>
@@ -573,6 +549,21 @@
   </si>
   <si>
     <t>11:2181060</t>
+  </si>
+  <si>
+    <t>2:163110536</t>
+  </si>
+  <si>
+    <t>6:30838895</t>
+  </si>
+  <si>
+    <t>6:32376517</t>
+  </si>
+  <si>
+    <t>6:32395942</t>
+  </si>
+  <si>
+    <t>6:31344182</t>
   </si>
 </sst>
 </file>
@@ -954,11 +945,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2936C92A-3A1B-4C43-81CA-C5EF6A570C1B}">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -970,7 +961,7 @@
     <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -999,15 +990,15 @@
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1019,10 +1010,10 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>22</v>
@@ -1031,16 +1022,16 @@
         <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>22</v>
@@ -1052,43 +1043,43 @@
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>22</v>
@@ -1097,18 +1088,18 @@
         <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
@@ -1120,10 +1111,10 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>22</v>
@@ -1132,21 +1123,21 @@
         <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>92</v>
+        <v>148</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
@@ -1155,10 +1146,10 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>22</v>
@@ -1167,18 +1158,18 @@
         <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>22</v>
@@ -1190,10 +1181,10 @@
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>22</v>
@@ -1202,18 +1193,18 @@
         <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>22</v>
@@ -1225,10 +1216,10 @@
         <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>22</v>
@@ -1237,18 +1228,18 @@
         <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>22</v>
@@ -1260,10 +1251,10 @@
         <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>22</v>
@@ -1272,18 +1263,18 @@
         <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>22</v>
@@ -1295,10 +1286,10 @@
         <v>18</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>22</v>
@@ -1307,18 +1298,18 @@
         <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>22</v>
@@ -1330,10 +1321,10 @@
         <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>22</v>
@@ -1342,18 +1333,18 @@
         <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>27</v>
@@ -1365,10 +1356,10 @@
         <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>22</v>
@@ -1377,15 +1368,15 @@
         <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>28</v>
@@ -1400,10 +1391,10 @@
         <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>22</v>
@@ -1412,15 +1403,15 @@
         <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>29</v>
@@ -1435,10 +1426,10 @@
         <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>22</v>
@@ -1447,18 +1438,18 @@
         <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
@@ -1470,10 +1461,10 @@
         <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>22</v>
@@ -1482,48 +1473,48 @@
         <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H16" s="1">
         <v>1.78</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1540,10 +1531,10 @@
         <v>17</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H17" s="1">
         <v>1.69</v>
@@ -1552,18 +1543,18 @@
         <v>15</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1575,10 +1566,10 @@
         <v>15</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H18" s="1">
         <v>1.24</v>
@@ -1587,13 +1578,13 @@
         <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1610,10 +1601,10 @@
         <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H19" s="1">
         <v>0.9</v>
@@ -1622,13 +1613,13 @@
         <v>18</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1645,10 +1636,10 @@
         <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H20" s="1">
         <v>0.84</v>
@@ -1657,13 +1648,13 @@
         <v>16</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -1680,10 +1671,10 @@
         <v>17</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H21" s="1">
         <v>0.81</v>
@@ -1692,13 +1683,13 @@
         <v>15</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -1715,10 +1706,10 @@
         <v>15</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H22" s="1">
         <v>0.78</v>
@@ -1727,13 +1718,13 @@
         <v>15</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -1750,10 +1741,10 @@
         <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H23" s="1">
         <v>0.74</v>
@@ -1762,18 +1753,18 @@
         <v>16</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>38</v>
@@ -1785,25 +1776,25 @@
         <v>15</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H24" s="1">
         <v>0.67</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1820,10 +1811,10 @@
         <v>15</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H25" s="1">
         <v>0.63</v>
@@ -1832,13 +1823,13 @@
         <v>15</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1855,10 +1846,10 @@
         <v>15</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H26" s="1">
         <v>0.45</v>
@@ -1867,13 +1858,13 @@
         <v>15</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -1890,10 +1881,10 @@
         <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H27" s="1">
         <v>0.44</v>
@@ -1902,18 +1893,18 @@
         <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>42</v>
@@ -1925,10 +1916,10 @@
         <v>15</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H28" s="1">
         <v>0.39</v>
@@ -1937,13 +1928,13 @@
         <v>15</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -1960,10 +1951,10 @@
         <v>15</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H29" s="1">
         <v>0.31</v>
@@ -1972,13 +1963,13 @@
         <v>15</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -1992,28 +1983,28 @@
         <v>17</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H30" s="1">
         <v>0.24</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -2030,10 +2021,10 @@
         <v>17</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H31" s="1">
         <v>-0.19</v>
@@ -2042,13 +2033,13 @@
         <v>17</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -2065,10 +2056,10 @@
         <v>18</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H32" s="1">
         <v>-0.49</v>
@@ -2077,10 +2068,10 @@
         <v>18</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -2097,10 +2088,10 @@
         <v>16</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H33" s="1">
         <v>-0.6</v>
@@ -2109,10 +2100,10 @@
         <v>16</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -2129,10 +2120,10 @@
         <v>17</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H34" s="1">
         <v>-0.68</v>
@@ -2141,10 +2132,10 @@
         <v>17</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -2161,10 +2152,10 @@
         <v>16</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H35" s="1">
         <v>-0.83</v>
@@ -2173,10 +2164,10 @@
         <v>16</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -2187,13 +2178,13 @@
         <v>22</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>76</v>
@@ -2205,12 +2196,12 @@
         <v>15</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>23</v>
@@ -2225,10 +2216,10 @@
         <v>15</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H37" s="1">
         <v>0.83</v>
@@ -2237,12 +2228,12 @@
         <v>18</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>14</v>
@@ -2257,10 +2248,10 @@
         <v>16</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H38" s="1">
         <v>0.64</v>
@@ -2269,15 +2260,15 @@
         <v>16</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>22</v>
@@ -2289,10 +2280,10 @@
         <v>15</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H39" s="1">
         <v>0.28000000000000003</v>
@@ -2301,15 +2292,15 @@
         <v>17</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>22</v>
@@ -2321,10 +2312,10 @@
         <v>17</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H40" s="1">
         <v>0.26</v>
@@ -2333,12 +2324,12 @@
         <v>17</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>13</v>
@@ -2353,10 +2344,10 @@
         <v>16</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H41" s="1">
         <v>0.26</v>
@@ -2365,15 +2356,15 @@
         <v>17</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>22</v>
@@ -2385,10 +2376,10 @@
         <v>16</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H42" s="1">
         <v>0.22</v>
@@ -2397,15 +2388,15 @@
         <v>16</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>22</v>
@@ -2417,10 +2408,10 @@
         <v>16</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H43" s="1">
         <v>0.22</v>
@@ -2429,12 +2420,12 @@
         <v>16</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>10</v>
@@ -2449,10 +2440,10 @@
         <v>18</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H44" s="1">
         <v>0.19</v>
@@ -2461,15 +2452,15 @@
         <v>18</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>22</v>
@@ -2481,10 +2472,10 @@
         <v>16</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H45" s="1">
         <v>0.18</v>
@@ -2493,15 +2484,15 @@
         <v>16</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>22</v>
@@ -2513,10 +2504,10 @@
         <v>18</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H46" s="1">
         <v>0.18</v>
@@ -2525,15 +2516,15 @@
         <v>16</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>22</v>
@@ -2545,10 +2536,10 @@
         <v>15</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H47" s="1">
         <v>0.17</v>
@@ -2557,18 +2548,18 @@
         <v>15</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>18</v>
@@ -2577,10 +2568,10 @@
         <v>15</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H48" s="1">
         <v>0.17</v>
@@ -2589,12 +2580,12 @@
         <v>15</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>8</v>
@@ -2609,10 +2600,10 @@
         <v>16</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H49" s="1">
         <v>0.16</v>
@@ -2621,15 +2612,15 @@
         <v>16</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>22</v>
@@ -2641,10 +2632,10 @@
         <v>16</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H50" s="1">
         <v>0.15</v>
@@ -2653,12 +2644,12 @@
         <v>16</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>7</v>
@@ -2673,10 +2664,10 @@
         <v>17</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H51" s="1">
         <v>0.15</v>
@@ -2685,15 +2676,15 @@
         <v>15</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>22</v>
@@ -2705,10 +2696,10 @@
         <v>15</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H52" s="1">
         <v>0.14000000000000001</v>
@@ -2717,15 +2708,15 @@
         <v>15</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>22</v>
@@ -2737,10 +2728,10 @@
         <v>16</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H53" s="1">
         <v>0.12</v>
@@ -2749,15 +2740,15 @@
         <v>16</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>22</v>
@@ -2769,10 +2760,10 @@
         <v>17</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H54" s="1">
         <v>0.12</v>
@@ -2781,18 +2772,18 @@
         <v>15</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>17</v>
@@ -2801,10 +2792,10 @@
         <v>16</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H55" s="1">
         <v>0.11</v>
@@ -2813,15 +2804,15 @@
         <v>16</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>22</v>
@@ -2833,10 +2824,10 @@
         <v>17</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H56" s="1">
         <v>0.11</v>
@@ -2845,15 +2836,15 @@
         <v>17</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>22</v>
@@ -2865,10 +2856,10 @@
         <v>18</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H57" s="1">
         <v>0.1</v>
@@ -2877,12 +2868,12 @@
         <v>16</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>6</v>
@@ -2897,10 +2888,10 @@
         <v>15</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H58" s="1">
         <v>0.1</v>
@@ -2909,15 +2900,15 @@
         <v>17</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>22</v>
@@ -2929,10 +2920,10 @@
         <v>17</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H59" s="1">
         <v>-0.08</v>
@@ -2941,15 +2932,15 @@
         <v>15</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>22</v>
@@ -2961,10 +2952,10 @@
         <v>17</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H60" s="1">
         <v>-0.13</v>
@@ -2973,15 +2964,15 @@
         <v>17</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>22</v>
@@ -2993,10 +2984,10 @@
         <v>16</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H61" s="1">
         <v>-0.14000000000000001</v>
@@ -3005,12 +2996,12 @@
         <v>16</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>9</v>
@@ -3025,10 +3016,10 @@
         <v>16</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H62" s="1">
         <v>-0.15</v>
@@ -3037,15 +3028,15 @@
         <v>16</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>22</v>
@@ -3057,10 +3048,10 @@
         <v>18</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H63" s="1">
         <v>-0.16</v>
@@ -3069,12 +3060,12 @@
         <v>16</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>11</v>
@@ -3089,10 +3080,10 @@
         <v>16</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H64" s="1">
         <v>-0.17</v>
@@ -3101,12 +3092,12 @@
         <v>16</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>12</v>
@@ -3121,10 +3112,10 @@
         <v>18</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H65" s="1">
         <v>-0.19</v>
@@ -3133,15 +3124,15 @@
         <v>18</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>22</v>
@@ -3153,10 +3144,10 @@
         <v>15</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H66" s="1">
         <v>-0.4</v>
@@ -3165,15 +3156,15 @@
         <v>15</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>22</v>
@@ -3185,10 +3176,10 @@
         <v>15</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H67" s="1">
         <v>-0.48</v>
@@ -3197,15 +3188,15 @@
         <v>15</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>22</v>
@@ -3217,10 +3208,10 @@
         <v>15</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H68" s="1">
         <v>-0.71</v>
@@ -3229,7 +3220,7 @@
         <v>15</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
